--- a/conf/Stats-2016.xlsx
+++ b/conf/Stats-2016.xlsx
@@ -4,15 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="8115" windowHeight="3420" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="19320" windowHeight="7005"/>
   </bookViews>
   <sheets>
     <sheet name="ARCCPT" sheetId="1" r:id="rId1"/>
     <sheet name="ARCSIG" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:P21"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Nombre de document par mois</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -349,12 +358,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -363,7 +386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/conf/Stats-2016.xlsx
+++ b/conf/Stats-2016.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="19320" windowHeight="7005"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="6375"/>
   </bookViews>
   <sheets>
     <sheet name="ARCCPT" sheetId="1" r:id="rId1"/>
@@ -17,15 +17,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Nombre de document par mois</t>
   </si>
+  <si>
+    <t>Nombre de recherche par mois</t>
+  </si>
+  <si>
+    <t>Nombre de consultations par mois</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -66,6 +72,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -114,7 +123,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -147,9 +156,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -182,6 +208,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -358,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -377,6 +420,16 @@
         <v>55</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
